--- a/Documentation/Task3.xlsx
+++ b/Documentation/Task3.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="8625" windowHeight="8205"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="8625" windowHeight="8205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Binlow </t>
   </si>
@@ -57,6 +58,27 @@
   </si>
   <si>
     <t xml:space="preserve"> error</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>life(dilated)</t>
   </si>
 </sst>
 </file>
@@ -108,6 +130,2514 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>136.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>139.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>145.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>148.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>181033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54370</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13382</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10932</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6042</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4897</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3309</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Expected</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>136.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>139.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>145.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>148.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>180967.48360719191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148163.64413634359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121306.13194252668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99317.060758281907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81313.931948119818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66574.21673961592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54506.358606802518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44626.032029685965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36536.704810546929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29913.723844527009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24491.285650596379</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20051.768744560752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16416.999724779762</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13441.102547949951</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11004.644011281445</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9009.8404787115596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7376.6334802480033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6039.4766844637006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4944.7052940678768</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4048.3822891608784</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3314.535080352251</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2713.7118024401871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2221.7993076484613</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1819.0554203391632</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1489.3166141848676</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1219.3493131031275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>998.31878138204331</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>817.35428769281327</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>669.19309149425442</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>547.88896375367369</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>448.57354389716068</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>367.26095540578149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>300.68783859551451</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>246.18238053469622</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>201.5570858097021</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>165.0209846531809</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>135.10775503876889</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>110.61687402956672</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90.565436577359392</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74.148708091817625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.707827615773354</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49.70336542159037</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.693673802128835</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.317162197526713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.277785296402278</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.333161698022952</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.284846295634651</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.970365977540121</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.256699010644425</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.034936411235057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2108327040"/>
+        <c:axId val="-2108328672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2108327040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2108328672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2108328672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2108327040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task4!$A$7:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task4!$B$7:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9871968206619732E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9077552789821375E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6913599546576446E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8283137373023012E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.158883083359672E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.611918412977809E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1494663734960335E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7488721956224652E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.395523088653315E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.079441541679836E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7935110022668614E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5324768712979723E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2923487482773627E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0700248318161975E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.630462173553427E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6943065394262915E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8755678849332481E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1608154697347888E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5387988316265175E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2096218144"/>
+        <c:axId val="-2096226304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2096218144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096226304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2096226304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096218144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455799</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455799</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31655</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,23 +2903,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -397,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -405,7 +2944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -413,7 +2952,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -421,7 +2960,7 @@
         <v>999950</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -429,7 +2968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -437,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -450,8 +2989,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -464,8 +3006,16 @@
       <c r="D9">
         <v>425.47972924688099</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f>EXP(-(B9/$D$1))*$B$4*$B$2*(1/$D$1)</f>
+        <v>180967.48360719191</v>
+      </c>
+      <c r="F9">
+        <f>(C9-E9)^2/D9^2</f>
+        <v>2.3710581643035394E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -478,8 +3028,16 @@
       <c r="D10">
         <v>384.79345108772299</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" ref="E10:E58" si="0">EXP(-(B10/$D$1))*$B$4*$B$2*(1/$D$1)</f>
+        <v>148163.64413634359</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F58" si="1">(C10-E10)^2/D10^2</f>
+        <v>6.4392752976950754E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -492,8 +3050,16 @@
       <c r="D11">
         <v>349.90855948375997</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>121306.13194252668</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>10.426686818407356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -506,8 +3072,16 @@
       <c r="D12">
         <v>315.70080772782302</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>99317.060758281907</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.2286661873462064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -520,8 +3094,16 @@
       <c r="D13">
         <v>286.34594461944101</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>81313.931948119818</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.6405658363795617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -534,8 +3116,16 @@
       <c r="D14">
         <v>257.70525799835701</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>66574.21673961592</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.39622764879267847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -548,8 +3138,16 @@
       <c r="D15">
         <v>233.17375495539801</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>54506.358606802518</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.34198399207510904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -562,8 +3160,16 @@
       <c r="D16">
         <v>210.97867190784899</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>44626.032029685965</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.2921302973198408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -576,8 +3182,16 @@
       <c r="D17">
         <v>190.66462702871701</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>36536.704810546929</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.9283266145320449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -590,8 +3204,16 @@
       <c r="D18">
         <v>173.23105957073599</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>29913.723844527009</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.30249411182357488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -604,8 +3226,16 @@
       <c r="D19">
         <v>156.46405337968201</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>24491.285650596379</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>4.321498639385417E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -618,8 +3248,16 @@
       <c r="D20">
         <v>142.010562987405</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>20051.768744560752</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.65841435166883944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -632,8 +3270,16 @@
       <c r="D21">
         <v>128.366662338786</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>16416.999724779762</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.22581827751819503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13</v>
       </c>
@@ -646,8 +3292,16 @@
       <c r="D22">
         <v>115.68059474259201</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>13441.102547949951</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.26103057645914951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
@@ -660,8 +3314,16 @@
       <c r="D23">
         <v>104.556204980861</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>11004.644011281445</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.48272524469985678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
@@ -674,8 +3336,16 @@
       <c r="D24">
         <v>94.768138105589003</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>9009.8404787115596</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>9.2614765873725066E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16</v>
       </c>
@@ -688,8 +3358,16 @@
       <c r="D25">
         <v>86.2090482490092</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>7376.6334802480033</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.4124665647804423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17</v>
       </c>
@@ -702,8 +3380,16 @@
       <c r="D26">
         <v>77.730302971235105</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6039.4766844637006</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.0538102111436311E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>18</v>
       </c>
@@ -716,8 +3402,16 @@
       <c r="D27">
         <v>69.978568147683603</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>4944.7052940678768</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.46473250604504884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>19</v>
       </c>
@@ -730,8 +3424,16 @@
       <c r="D28">
         <v>63.134776470658302</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>4048.3822891608784</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.97630456621963213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20</v>
       </c>
@@ -744,8 +3446,16 @@
       <c r="D29">
         <v>57.523908073078601</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>3314.535080352251</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>9.2587230298807974E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>21</v>
       </c>
@@ -758,8 +3468,16 @@
       <c r="D30">
         <v>52.105661880452097</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2713.7118024401871</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>6.1121655731418843E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>22</v>
       </c>
@@ -772,8 +3490,20 @@
       <c r="D31">
         <v>47.738873049120002</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2221.7993076484613</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1.4356819681857758</v>
+      </c>
+      <c r="I31">
+        <f>LN(5*10^13)</f>
+        <v>31.543044121356694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23</v>
       </c>
@@ -786,8 +3516,16 @@
       <c r="D32">
         <v>42.755116652863897</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1819.0554203391632</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>4.3766687805828784E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>24</v>
       </c>
@@ -800,8 +3538,16 @@
       <c r="D33">
         <v>39.166312055132202</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1489.3166141848676</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1.3015677756870814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
@@ -814,8 +3560,16 @@
       <c r="D34">
         <v>35.552777669262298</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1219.3493131031275</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1.5772815192741647</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>26</v>
       </c>
@@ -828,8 +3582,16 @@
       <c r="D35">
         <v>31.749015732775</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>998.31878138204331</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>9.2982136833999723E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27</v>
       </c>
@@ -842,8 +3604,16 @@
       <c r="D36">
         <v>28.266588050205101</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>817.35428769281327</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.42162687948755651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>28</v>
       </c>
@@ -856,8 +3626,16 @@
       <c r="D37">
         <v>25.787593916455201</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>669.19309149425442</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2.6439122224344087E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>29</v>
       </c>
@@ -870,8 +3648,16 @@
       <c r="D38">
         <v>23.151673805580401</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>547.88896375367369</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.26370794614956616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>30</v>
       </c>
@@ -884,8 +3670,16 @@
       <c r="D39">
         <v>20.976176963402999</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>448.57354389716068</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.16705830671941202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>31</v>
       </c>
@@ -898,8 +3692,16 @@
       <c r="D40">
         <v>19.313207915827899</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>367.26095540578149</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>8.8301964757182189E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>32</v>
       </c>
@@ -912,8 +3714,16 @@
       <c r="D41">
         <v>16.370705543744901</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>300.68783859551451</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>3.9869208658448052</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>33</v>
       </c>
@@ -926,8 +3736,16 @@
       <c r="D42">
         <v>15.6843871413581</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>246.18238053469622</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>1.3521406274829203E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>34</v>
       </c>
@@ -940,8 +3758,16 @@
       <c r="D43">
         <v>14.866068747318501</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>201.5570858097021</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1.7105290145307133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>35</v>
       </c>
@@ -954,8 +3780,16 @@
       <c r="D44">
         <v>12.767145334803701</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>165.0209846531809</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>2.5057539683391042E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>36</v>
       </c>
@@ -968,8 +3802,16 @@
       <c r="D45">
         <v>11.958260743101301</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>135.10775503876889</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.43557713655999247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>37</v>
       </c>
@@ -982,8 +3824,16 @@
       <c r="D46">
         <v>11.13552872566</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>110.61687402956672</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>1.4444198446813485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
@@ -996,8 +3846,16 @@
       <c r="D47">
         <v>8.6602540378443802</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>90.565436577359392</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>3.2304375445839737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>39</v>
       </c>
@@ -1010,8 +3868,16 @@
       <c r="D48">
         <v>8.6602540378443802</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>74.148708091817625</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>9.6626388391572119E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40</v>
       </c>
@@ -1024,8 +3890,16 @@
       <c r="D49">
         <v>8.0622577482985491</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>60.707827615773354</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0.28342682732181318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>41</v>
       </c>
@@ -1038,8 +3912,16 @@
       <c r="D50">
         <v>6.4807406984078604</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>49.70336542159037</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>1.4129009242512898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>42</v>
       </c>
@@ -1052,8 +3934,16 @@
       <c r="D51">
         <v>5.6568542494923797</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>40.693673802128835</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>2.3618738805569142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>43</v>
       </c>
@@ -1066,8 +3956,16 @@
       <c r="D52">
         <v>5.7445626465380197</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>33.317162197526713</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>3.0482381678779993E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>44</v>
       </c>
@@ -1080,8 +3978,16 @@
       <c r="D53">
         <v>4.5825756949558398</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>27.277785296402278</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>1.8766946775106974</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>45</v>
       </c>
@@ -1094,8 +4000,16 @@
       <c r="D54">
         <v>4.7958315233127102</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>22.333161698022952</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>1.9333622651462368E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>46</v>
       </c>
@@ -1108,8 +4022,16 @@
       <c r="D55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>18.284846295634651</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0.32628266216721169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>47</v>
       </c>
@@ -1122,8 +4044,16 @@
       <c r="D56">
         <v>1.41421356237309</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>14.970365977540121</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>84.115196795665753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>48</v>
       </c>
@@ -1136,8 +4066,16 @@
       <c r="D57">
         <v>3.6055512754639798</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>12.256699010644425</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>4.249972005976764E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>49</v>
       </c>
@@ -1150,8 +4088,275 @@
       <c r="D58">
         <v>2.8284271247461898</v>
       </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>10.034936411235057</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0.51762077472127666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f>SUM(F9:F58)/B3</f>
+        <v>2.6090913834396812</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <f>10^-12</f>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>3*10^8</f>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <f>B1*B3</f>
+        <v>1E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <f>-B1*LN(0.5)*B2</f>
+        <v>2.0794415416798358E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="e">
+        <f>-$B$4*$B$2*LN(A7)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.05</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B27" si="0">-$B$4*$B$2*LN(A8)</f>
+        <v>8.9871968206619732E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.1</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6.9077552789821375E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.15</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5.6913599546576446E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>4.8283137373023012E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.25</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>4.158883083359672E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3.611918412977809E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.35</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.1494663734960335E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.4</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.7488721956224652E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.45</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.395523088653315E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.079441541679836E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.7935110022668614E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.6</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.5324768712979723E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.65</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.2923487482773627E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.7</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.0700248318161975E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.75</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>8.630462173553427E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.8</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>6.6943065394262915E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.85</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>4.8755678849332481E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.9</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>3.1608154697347888E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.95</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.5387988316265175E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>